--- a/src/results_csv/best_models.xlsx
+++ b/src/results_csv/best_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidri\TESI\nuova_struttura\src\results_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C5B6E7-CB74-430E-998B-DA4B85838A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBD836-DB7C-4013-A9E0-FA6E18BAAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4215" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4215" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_model" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>conv_gru</t>
   </si>
   <si>
-    <t>conv_long_rnn</t>
-  </si>
-  <si>
     <t>augmentation_base_model</t>
   </si>
   <si>
@@ -239,7 +236,10 @@
     <t>conv_gru + clinical features</t>
   </si>
   <si>
-    <t>conv_long_rnn + clinical features</t>
+    <t>conv_long_lstm + clinical features</t>
+  </si>
+  <si>
+    <t>conv_long_lstm</t>
   </si>
 </sst>
 </file>
@@ -422,53 +422,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +535,10 @@
     <sortCondition descending="1" ref="K1:K101"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{D9890525-24A3-4798-A3DF-AE227F3714BA}" name="learning_rate" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D9890525-24A3-4798-A3DF-AE227F3714BA}" name="learning_rate" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{B11947DA-0F87-47D6-9168-D6677740E461}" name="batch_size"/>
     <tableColumn id="3" xr3:uid="{CB0B93D8-5DCF-4ECE-BBDE-38E6BEAE37C5}" name="dropout"/>
-    <tableColumn id="4" xr3:uid="{633BC293-8F4A-48BA-877C-A9744E80738E}" name="weight_decay" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{633BC293-8F4A-48BA-877C-A9744E80738E}" name="weight_decay" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{45119C1E-EA48-45FC-8A57-97321831A650}" name="f1_t_x000a_"/>
     <tableColumn id="6" xr3:uid="{45F75A6A-0439-446C-8228-43EA2A474CA2}" name="f1_Accuracy"/>
     <tableColumn id="7" xr3:uid="{826564F6-8AC2-4504-8764-0747B26ECEDC}" name="f1_AUC"/>
@@ -608,10 +608,10 @@
     <sortCondition descending="1" ref="K1:K55"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{73C9FDC9-346C-4A50-A16E-FADBA471EA23}" name="learning_rate" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{73C9FDC9-346C-4A50-A16E-FADBA471EA23}" name="learning_rate" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2BB443B4-B10D-45C8-8B12-36B1B0FE8E6F}" name="batch_size"/>
     <tableColumn id="3" xr3:uid="{454E8105-1268-4BD1-859D-E720201D96C3}" name="dropout"/>
-    <tableColumn id="4" xr3:uid="{F1146152-2738-4896-980F-543211E9EC5A}" name="weight_decay" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F1146152-2738-4896-980F-543211E9EC5A}" name="weight_decay" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{D913A8CE-8685-40FB-895F-60CB58472CA5}" name="f1_t_x000a_"/>
     <tableColumn id="6" xr3:uid="{D0315285-0AB2-4B2B-BD71-3E6DF179DA97}" name="f1_Accuracy"/>
     <tableColumn id="7" xr3:uid="{605B7D5E-4FF8-404C-9DF0-293C47AED750}" name="f1_AUC"/>
@@ -645,10 +645,10 @@
     <sortCondition descending="1" ref="K1:K55"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{58957301-2BD6-4E21-8546-A5D1AB3EFD70}" name="learning_rate" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{58957301-2BD6-4E21-8546-A5D1AB3EFD70}" name="learning_rate" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E2B879F5-3DA7-466D-8002-AA5220BCCBE6}" name="batch_size"/>
     <tableColumn id="3" xr3:uid="{B4914FF9-ADDF-4CD1-A757-31AF4AC8D758}" name="dropout"/>
-    <tableColumn id="4" xr3:uid="{71437AE6-F846-433D-89CD-FB7CF92B8E55}" name="weight_decay" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{71437AE6-F846-433D-89CD-FB7CF92B8E55}" name="weight_decay" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{A707792D-553A-480A-9A1B-68772F3EFACA}" name="f1_t_x000d__x000a_"/>
     <tableColumn id="6" xr3:uid="{D342E001-20FC-4DC6-BFB7-8FD71B3803E8}" name="f1_Accuracy"/>
     <tableColumn id="7" xr3:uid="{D10E972D-2F69-4C32-8F52-5A3F967CC391}" name="f1_AUC"/>
@@ -682,10 +682,10 @@
     <sortCondition descending="1" ref="H1:H73"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{1E46987E-360C-4E5D-8238-610D19CF43A0}" name="learning_rate" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1E46987E-360C-4E5D-8238-610D19CF43A0}" name="learning_rate" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E7ACB39C-3AD3-4F26-A49E-C6BACFFFEEB5}" name="batch_size"/>
     <tableColumn id="3" xr3:uid="{3D81FAD6-C158-4B36-B76A-1E6FE846FDCD}" name="dropout"/>
-    <tableColumn id="4" xr3:uid="{819EB3D0-D75F-4E01-87E8-BA32DD578D4C}" name="weight_decay" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{819EB3D0-D75F-4E01-87E8-BA32DD578D4C}" name="weight_decay" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{7B771F3A-B932-4498-A589-22282DA81343}" name="f1_t"/>
     <tableColumn id="6" xr3:uid="{8D867C8F-DCD8-4F3C-AD1D-C6689418A1DE}" name="f1_Accuracy"/>
     <tableColumn id="7" xr3:uid="{7CCE6E98-D075-415E-9EB0-D33BCCD1D916}" name="f1_AUC"/>
@@ -21656,7 +21656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11D258-0DE4-494A-8EFA-EE1C3954524B}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -27210,8 +27210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C9C083-3C08-443B-9219-8FABABBC1922}">
   <dimension ref="B2:Y35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27241,94 +27241,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="B2" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="H6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="K6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="L6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="S6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="T6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="U6" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="V6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="W6" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="W6" s="47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28086,48 +28086,48 @@
         <v>50</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="42" t="s">
+      <c r="B22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="H22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="I22" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="J22" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="K22" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="L22" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="M22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="N22" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -28217,48 +28217,48 @@
         <v>51</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="42" t="s">
+      <c r="B28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="H28" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="I28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="J28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="K28" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="L28" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="M28" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="N28" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
@@ -28304,51 +28304,51 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="42" t="s">
+      <c r="B33" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="H33" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="J33" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="K33" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="L33" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="M33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="N33" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="N33" s="42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
